--- a/new_places.xlsx
+++ b/new_places.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Myproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5082A17C-CBDE-447E-9D88-78532E8EE116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F86D996-3132-4C8B-97ED-48543FF0F706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>地名</t>
   </si>
@@ -36,77 +36,73 @@
     <t>简介</t>
   </si>
   <si>
-    <t>长寿</t>
-  </si>
-  <si>
-    <t>垫江</t>
-  </si>
-  <si>
-    <t>梁平</t>
-  </si>
-  <si>
-    <t>宣汉</t>
-  </si>
-  <si>
-    <t>镇巴</t>
-  </si>
-  <si>
-    <t>西乡</t>
-  </si>
-  <si>
-    <t>涪陵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心起点与贡荔源头</t>
-  </si>
-  <si>
-    <t>涪陵（唐代称涪州）是荔枝道的南端核心起点，更是唐代贡荔的核心产地。据《新唐书》《荔枝谱》记载，唐天宝年间，此地“妃子园”盛产荔枝名品“玉真子”，为杨贵妃所嗜。鲜荔枝采下后密封于竹筒，从涪陵荔枝园码头出发，经荔枝道快马驿传运往长安。作为古道起点，涪陵留存“荔圃春风”等历史印记，其贡荔史实与古道遗存，是荔枝道文化的重要源头与核心载体。</t>
-  </si>
-  <si>
-    <t>达州</t>
-  </si>
-  <si>
-    <t>古道形制保存与历史遗存的集中区域</t>
-  </si>
-  <si>
-    <t>达州地处荔枝道川陕段要冲，是古道从四川万源进入重庆涪陵的必经之地，唐代“达涪道”主体路段贯穿其境。境内留存北宋高观音岩摩崖造像等关键遗存，其明确纪年为考证古道走向提供了重要依据。作为川陕物资转运枢纽，这里曾见证盐茶贸易与荔枝快运的繁华，现存古道遗迹、石刻等，是荔枝道交通功能与文化传承的重要实物载体。</t>
-  </si>
-  <si>
-    <t>荔枝道穿越大巴山的关键要冲</t>
-  </si>
-  <si>
-    <t>宣汉地处荔枝道川陕段核心，是古道从达州通往万源、穿越巴山的必经之地。境内留存大量清代石刻墓坊，含“二十四孝”等戏曲雕饰，印证清代移民孝善文化与宗族认同。同时，宣汉丁木沟修路碑记载 “以商养路” 模式，见证官民协同治理智慧，其古道遗迹与文化遗存，是荔枝道交通功能与文化传承的重要实物佐证。</t>
-  </si>
-  <si>
-    <t>连接陕川的交通枢纽与多文化融合的见证地</t>
-  </si>
-  <si>
-    <t>镇巴位于陕西南端，境内荔枝道又称“小巴间道”，全长约 230 公里，是荔枝道从西乡通往万源的必经之路。唐时广设驿站，为荔枝快运提供关键支撑，明清再度成为川陕要道，见证盐茶等物资贸易繁华。这里留存拴马岭等遗迹，融合荆楚、巴蜀与中原文化，是古道交通功能与文化交融的重要实物载体。</t>
-  </si>
-  <si>
-    <t>荔枝道与子午道的关键交汇地</t>
-  </si>
-  <si>
-    <t>西乡地处秦巴腹地，其子午镇是荔枝道接入子午道的咽喉。唐代鲜荔枝从涪陵北上，经川陕多地抵达西乡后，在此换马接力，沿子午道疾驰长安，保障3-7日送达。境内留存古栈孔、唐兴寺、子午老街等遗存，见证了古道的运输功能与历史繁华，是荔枝道北段的重要文化承载地。</t>
-  </si>
-  <si>
-    <t>荔枝古道首县</t>
-  </si>
-  <si>
-    <t>垫江境内荔枝道长约70-80公里，两条支线在此汇并入夔巴古道，是涪陵、长寿荔枝运往长安的必经之地。境内留存桂溪唐宋城址等遗存，出土纪年瓦、瓷片等文物，印证其交通要冲地位。它曾催生多个场镇，见证唐代贡荔快运与明清商贸繁华，是荔枝道线路传承与功能演变的重要实物载体。</t>
-  </si>
-  <si>
-    <t>荔枝道重庆段核心节点</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 梁平地处荔枝道涪陵至达州的必经之路，唐代为贡荔快运提供驿站支撑，南宋赤牛城遗址为同期沿线军事防御设施，与古道交通功能互补。明清时，这里因盐茶桐油贸易催生“腰店”，马道子遗址的驿站兼具住宿仓储功能，见证古道商贸繁华，是荔枝道功能演变与治理智慧的重要载体。</t>
-  </si>
-  <si>
-    <t>古道南段途经的重要节点</t>
-  </si>
-  <si>
-    <t>据《元和郡县志》等记载，唐代乐温县盛产荔枝且品质极佳，是天宝年间贡荔的核心来源地，境内有“妃子园”贡荔遗址。境内发现的清光绪年间指路碑，明确标注“下走涪州”，与周边遗迹构成完整证据链，实证其为荔枝道南段重要节点，是古道贡荔历史与交通脉络的核心实物载体。</t>
+    <t>罗家坝遗址</t>
+  </si>
+  <si>
+    <t>鹰背乡</t>
+  </si>
+  <si>
+    <t>浪洋寺</t>
+  </si>
+  <si>
+    <t>大巴山脉</t>
+  </si>
+  <si>
+    <t>地貌单元</t>
+  </si>
+  <si>
+    <t>大巴山脉位于中国西部，是中国陕西、四川、湖北三省交界地区山地的总称。东西绵延500多公里，故称千里巴山，简称巴山。同时也是嘉陵江和汉江的分水岭，四川盆地和汉中盆地的地理界线。大巴山脉是荔枝道穿行的主重要山脉，地势险峻，古道沿山谷分布</t>
+  </si>
+  <si>
+    <t>文化遗址</t>
+  </si>
+  <si>
+    <t>位于四川省达州市宣汉县普光镇进化村，地处秦、楚、巴、蜀文化交界处，距今有5300年历史，1999年首次发掘了涵盖东汉、西汉、周、商、夏、新石器时代晚期的文化堆积非常深厚的巴人文化遗址。2000年，考古发掘被评为“1999年四川省十大文物工作成果”。2001年6月，被国务院核定为第五批全国重点文物保护单位。</t>
+  </si>
+  <si>
+    <t>文化古迹分布区</t>
+  </si>
+  <si>
+    <t>万源市鹰背乡是重要的文化古迹分布区。鹰背乡瓦子坪村自20世纪70年代以来，多次发现新石器时代的磨制石器——石斧、石凿、石刀，说明大巴山早在石器时代就是人类重要的聚居区。鹰背乡境内现存崖墓500余座，悬棺20余挂，石棺墓800余座，极具人文研究价值。</t>
+  </si>
+  <si>
+    <t>古寺庙</t>
+  </si>
+  <si>
+    <t>浪洋寺地处宣汉县马渡关镇，该寺摩崖造像建于唐咸通十二年（871）。寺庙初名大慈寺，明弘治九年（1496）改名浪洋寺，后经两次大修，在民国毁于火灾。寺庙虽毁，但造像保存较为完好，雕工细腻，形神兼备，具有极高的艺术价值和研究价值，而两通刻于宋代的碑文题记，更是研究宋代书法艺术的“活化石”。</t>
+  </si>
+  <si>
+    <t>三丛山寺</t>
+  </si>
+  <si>
+    <t>三丛山寺位于万源市鹰背乡三丛山。自唐代至清朝中期，三丛山建有寺庙群，规模宏大，为川东名刹。据传，明初建文帝朱允炆曾避难于三丛山寺及其下院望京寺。三丛山寺藏经洞内曾经珍藏唐朝至明清各代高僧手写佛经典籍3000多册，手写本大部分被毁。原藏于三丛山寺正殿的紫檀木雕佛屏、宋代黄杨木罗盘和“佛法僧宝”铜印，被誉为“三丛三宝”。</t>
+  </si>
+  <si>
+    <t>秦河乡三官场村</t>
+  </si>
+  <si>
+    <t>古民居群</t>
+  </si>
+  <si>
+    <t>位于万源市，是荔枝古道沿线古民居群的典型代表。三官场村古民居约占全村建筑的八成，四合院结构成群聚集，配堂屋、吊脚楼、窗花、磉墩等，属典型的川东特色民居。其中，荔枝古道沿线核心区四平方公里内，有保存较好的古建筑三合院、四合院40余套，聚居院落有大屋基、库楼弯、李家河三处。</t>
+  </si>
+  <si>
+    <t>玉带乡太平坎村</t>
+  </si>
+  <si>
+    <t>古民居群、古驿站</t>
+  </si>
+  <si>
+    <t>位于万源市，是荔枝古道上的一处重要驿站，现有穿斗木结构院落98套，依山而建，错落有致，其中明清建筑88套，具有丰富的历史文化价值，被誉为“川东民居博物馆”。</t>
+  </si>
+  <si>
+    <t>苏家岩</t>
+  </si>
+  <si>
+    <t>地貌单元、茶文化遗址</t>
+  </si>
+  <si>
+    <t>万源市石窝镇古社坪村苏家岩存有几十株千年老茶桩。苏家岩石壁上有近千年历史的记载茶事文化的《紫云坪植茗灵园记》摩崖石刻刻确凿记载了王雅、王敏父子从福建武夷山移植茶苗到万源种植的始末，是我国迄今保存最完好、记载种茶活动年代最早的石刻文字资料，极为罕见，弥足珍贵。对于我国茶史的研究极具重要的史料价值。</t>
   </si>
 </sst>
 </file>
@@ -448,7 +444,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -478,13 +474,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -498,13 +494,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -518,13 +514,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -538,13 +534,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -558,13 +554,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -578,13 +574,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -598,13 +594,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -618,13 +614,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
